--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H2">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I2">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J2">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>1214.848708820747</v>
+        <v>86.3532428697611</v>
       </c>
       <c r="R2">
-        <v>10933.63837938672</v>
+        <v>777.17918582785</v>
       </c>
       <c r="S2">
-        <v>0.005240287112481905</v>
+        <v>0.0004250170544469675</v>
       </c>
       <c r="T2">
-        <v>0.005240287112481904</v>
+        <v>0.0004250170544469675</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H3">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I3">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J3">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>1054.336690516443</v>
+        <v>113.7867411196178</v>
       </c>
       <c r="R3">
-        <v>9489.030214647984</v>
+        <v>1024.08067007656</v>
       </c>
       <c r="S3">
-        <v>0.004547913605549516</v>
+        <v>0.0005600404100482784</v>
       </c>
       <c r="T3">
-        <v>0.004547913605549514</v>
+        <v>0.0005600404100482784</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.379369</v>
+        <v>1.120168333333333</v>
       </c>
       <c r="H4">
-        <v>31.138107</v>
+        <v>3.360505</v>
       </c>
       <c r="I4">
-        <v>0.01614698522449884</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="J4">
-        <v>0.01614698522449883</v>
+        <v>0.001768092629909379</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>1474.148454375931</v>
+        <v>159.0939118962044</v>
       </c>
       <c r="R4">
-        <v>13267.33608938338</v>
+        <v>1431.84520706584</v>
       </c>
       <c r="S4">
-        <v>0.006358784506467414</v>
+        <v>0.0007830351654141328</v>
       </c>
       <c r="T4">
-        <v>0.006358784506467413</v>
+        <v>0.0007830351654141328</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I5">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J5">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>70698.56893478152</v>
+        <v>46564.47800596355</v>
       </c>
       <c r="R5">
-        <v>636287.1204130338</v>
+        <v>419080.302053672</v>
       </c>
       <c r="S5">
-        <v>0.3049604423743221</v>
+        <v>0.2291830234309066</v>
       </c>
       <c r="T5">
-        <v>0.3049604423743221</v>
+        <v>0.2291830234309066</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I6">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J6">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>61357.51279457848</v>
@@ -818,10 +818,10 @@
         <v>552217.6151512064</v>
       </c>
       <c r="S6">
-        <v>0.2646675106264739</v>
+        <v>0.3019920096744366</v>
       </c>
       <c r="T6">
-        <v>0.2646675106264739</v>
+        <v>0.3019920096744366</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1812.093628</v>
       </c>
       <c r="I7">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="J7">
-        <v>0.9396797639857967</v>
+        <v>0.9534130698726969</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>85788.6133187439</v>
@@ -880,10 +880,10 @@
         <v>772097.5198686952</v>
       </c>
       <c r="S7">
-        <v>0.3700518109850006</v>
+        <v>0.4222380367673537</v>
       </c>
       <c r="T7">
-        <v>0.3700518109850006</v>
+        <v>0.4222380367673537</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H8">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I8">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J8">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>3323.457347620943</v>
+        <v>2188.941854110411</v>
       </c>
       <c r="R8">
-        <v>29911.11612858848</v>
+        <v>19700.4766869937</v>
       </c>
       <c r="S8">
-        <v>0.01433583505597738</v>
+        <v>0.01077362688732878</v>
       </c>
       <c r="T8">
-        <v>0.01433583505597738</v>
+        <v>0.01077362688732878</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H9">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I9">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J9">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
-        <v>2884.345182672657</v>
+        <v>2884.345182672658</v>
       </c>
       <c r="R9">
         <v>25959.10664405392</v>
       </c>
       <c r="S9">
-        <v>0.01244171128385255</v>
+        <v>0.01419629249357483</v>
       </c>
       <c r="T9">
-        <v>0.01244171128385255</v>
+        <v>0.01419629249357482</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>28.39480333333333</v>
       </c>
       <c r="H10">
-        <v>85.18440999999999</v>
+        <v>85.18441</v>
       </c>
       <c r="I10">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="J10">
-        <v>0.04417325078970441</v>
+        <v>0.04481883749739363</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>4032.822751184764</v>
       </c>
       <c r="R10">
-        <v>36295.40476066287</v>
+        <v>36295.40476066288</v>
       </c>
       <c r="S10">
-        <v>0.01739570444987448</v>
+        <v>0.01984891811649002</v>
       </c>
       <c r="T10">
-        <v>0.01739570444987448</v>
+        <v>0.01984891811649002</v>
       </c>
     </row>
   </sheetData>
